--- a/Project/Admin/bin/src/main/resources/TestData.xlsx
+++ b/Project/Admin/bin/src/main/resources/TestData.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="15945" windowHeight="4185" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Trainer" sheetId="1" r:id="rId1"/>
     <sheet name="Admin" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:D8"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>trainerict@gmail.com</t>
   </si>
@@ -189,6 +190,12 @@
   </si>
   <si>
     <t>Mobile Web applications refer to applications for mobile devices that require only a Web browser to be installed on the device.</t>
+  </si>
+  <si>
+    <t>ROBOTICS</t>
+  </si>
+  <si>
+    <t>genetics</t>
   </si>
 </sst>
 </file>
@@ -196,10 +203,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -284,6 +291,49 @@
       <color rgb="FF333333"/>
       <name val="&quot;Open Sans&quot;"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -294,30 +344,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,16 +390,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,10 +414,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,71 +438,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -458,19 +465,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,163 +645,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,15 +674,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -687,6 +685,33 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,15 +731,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -726,6 +742,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,171 +771,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2453,13 +2460,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="58.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="73.8571428571429" customWidth="1"/>
@@ -2558,6 +2565,14 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
+    <row r="9" customHeight="1" spans="1:2">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" display="Jblava@gmail.com"/>
